--- a/biology/Zoologie/Cordylodus/Cordylodus.xlsx
+++ b/biology/Zoologie/Cordylodus/Cordylodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordylodus est un genre éteint de conodontes de l'ordre des Proconodontida et de la famille des Cordylodontidae.
 C'est l'un des 14 genres de conodontes cités par Christian Heinrich von Pander dans sa monographie des poissons fossiles parue en 1856.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Cordylodus andresi
 †Cordylodus angulatus Pander, 1856
